--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1275758.087374852</v>
+        <v>1292403.206678541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7283332.823790431</v>
+        <v>7283332.823790433</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.17354161800006</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>225.4542698385318</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +758,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>26.60471491456789</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>40.62653258478218</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.80371536444976</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>208.6957123392361</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20.76686635758885</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>91.76229906440652</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>18.37030639505919</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>143.0289497119306</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>125.178514901655</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1418,19 +1420,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>129.0632770397859</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>7.425224531302296</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>72.22100538996682</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.32383399721645</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>281.7672422355062</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.425224531302296</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>55.77299281676217</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356414</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>241.9189633854834</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>405.7415719969024</v>
@@ -1859,10 +1861,10 @@
         <v>405.7415719969024</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>26.50533691882915</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1980,16 +1982,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>128.4562226808346</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>98.68313739545468</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>39.1947906270704</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>219.8407400919971</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>200.8372562576542</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>196.0791090785551</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>88.93004835708112</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>73.36175976093807</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>104.1189927826354</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>26.50533691882911</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>36.694665827484</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>36.77744954665708</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,13 +2523,13 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>96.06064116356414</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>261.4697023004217</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>228.3879067939458</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>55.15641005250326</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>8.760815263988391</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>19.91511220793393</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>404.196108872934</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>95.42382038141622</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>43.10070109604781</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>11.01996486362361</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>34.65343661111039</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969024</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>240.5685791840599</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>232.973154397654</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>67.24000532340534</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>319.9764258592341</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -3314,22 +3316,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>67.16774963972644</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>88.00880902957816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3408,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>74.78464045573055</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3441,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>12.35168551462441</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>265.7301653101239</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>63.65031255674068</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3636,7 +3638,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>141.220950829159</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3647,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>88.52732606836751</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>21.3881647021494</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>98.68313739545479</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>141.639626083508</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.5790505024933</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>148.6941676914269</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3873,16 +3875,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>121.0732952447399</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>33.64439241526563</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.0890042129127</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>68.43220977537635</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.12901845644065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>39.78373978801282</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>174.1736765502214</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>98.68313739545479</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.68313739545479</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.0827180527828</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.1848366757484</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C3" t="n">
-        <v>279.1848366757484</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>836.0141766548675</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>607.7905583912566</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="W3" t="n">
-        <v>694.7966356462352</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="X3" t="n">
-        <v>486.9451354407024</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.1848366757484</v>
+        <v>372.6384501595139</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9257720901863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>752.9257720901863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>752.9257720901863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>752.9257720901863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.3388210166704</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C6" t="n">
-        <v>282.3388210166704</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>697.9506199871571</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>697.9506199871571</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X6" t="n">
-        <v>490.0991197816243</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y6" t="n">
-        <v>282.3388210166704</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="7">
@@ -4702,25 +4704,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="C8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="E8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="F8" t="n">
         <v>518.2486856454962</v>
       </c>
-      <c r="C8" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="D8" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="E8" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4844,10 +4846,10 @@
         <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.9389693285341</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C9" t="n">
-        <v>279.9389693285341</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D9" t="n">
-        <v>279.9389693285341</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
         <v>133.4044113554191</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>945.5012904651219</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>743.3146958238879</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>515.0910775602769</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>279.9389693285341</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>279.9389693285341</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X9" t="n">
-        <v>279.9389693285341</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y9" t="n">
-        <v>279.9389693285341</v>
+        <v>282.3388210166704</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4989,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="C11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="D11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="E11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F11" t="n">
-        <v>348.5582999135148</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G11" t="n">
-        <v>348.5582999135148</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
@@ -5042,49 +5044,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="U11" t="n">
-        <v>1032.3898425272</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="V11" t="n">
-        <v>701.3269551836289</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="W11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="X11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.5582999135148</v>
+        <v>1378.603698709343</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.95955255904744</v>
+        <v>683.8880725083636</v>
       </c>
       <c r="C12" t="n">
-        <v>39.95955255904744</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="D12" t="n">
-        <v>39.95955255904744</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E12" t="n">
-        <v>39.95955255904744</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F12" t="n">
-        <v>39.95955255904744</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>39.95955255904744</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497703</v>
+        <v>607.634746781107</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1009.31890305804</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894786</v>
+        <v>1267.715208498918</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577358</v>
+        <v>1267.715208498918</v>
       </c>
       <c r="W12" t="n">
-        <v>455.5713515295342</v>
+        <v>1267.715208498918</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240014</v>
+        <v>1059.863708293386</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.95955255904744</v>
+        <v>852.1034095284317</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.2618144142068</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="C14" t="n">
-        <v>442.299297473795</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="D14" t="n">
-        <v>442.299297473795</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
@@ -5279,7 +5281,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5303,25 +5305,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942234</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="V14" t="n">
-        <v>834.8212426942234</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="W14" t="n">
-        <v>834.8212426942234</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="X14" t="n">
-        <v>834.8212426942234</v>
+        <v>970.5203861509709</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.8212426942234</v>
+        <v>580.3810541751592</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.45932575975219</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>898.2686245361181</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813052</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.96628798761</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.96628798761</v>
@@ -5379,28 +5381,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894786</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577358</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="W15" t="n">
-        <v>455.5713515295342</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="X15" t="n">
-        <v>247.7198513240014</v>
+        <v>1214.21177888757</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.95955255904744</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5455,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.96628798761</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.603698709343</v>
+        <v>878.9123367826148</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>469.072365068572</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>59.23239335452911</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>59.23239335452911</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5516,13 +5518,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>815.2070562058072</v>
+        <v>121.357112658316</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894786</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>815.2070562058072</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W18" t="n">
-        <v>815.2070562058072</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X18" t="n">
-        <v>815.2070562058072</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y18" t="n">
-        <v>815.2070562058072</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5676,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5701,10 +5703,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V19" t="n">
         <v>32.45932575975219</v>
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1178.161014740097</v>
+        <v>834.8212426942234</v>
       </c>
       <c r="V20" t="n">
-        <v>1178.161014740097</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="W20" t="n">
-        <v>1178.161014740097</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="X20" t="n">
-        <v>1178.161014740097</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="Y20" t="n">
-        <v>788.0216827642857</v>
+        <v>631.9553272824515</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
@@ -5853,28 +5855,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="U21" t="n">
-        <v>1455.464052945775</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="V21" t="n">
-        <v>1455.464052945775</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="W21" t="n">
-        <v>1455.464052945775</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.635721271956</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="22">
@@ -5914,16 +5916,16 @@
         <v>40.81344334191287</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N22" t="n">
         <v>270.968751228571</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P22" t="n">
         <v>361.2466016029502</v>
@@ -5944,16 +5946,16 @@
         <v>361.2466016029502</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029502</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029502</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="X22" t="n">
-        <v>361.2466016029502</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.1077905899919</v>
+        <v>106.5621133970634</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.5925424806037</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="C23" t="n">
-        <v>137.630025540192</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5987,13 +5989,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941458</v>
@@ -6026,13 +6028,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="X23" t="n">
-        <v>896.7318744564154</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.5925424806037</v>
+        <v>1596.193220392832</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>250.2070755734487</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C24" t="n">
-        <v>250.2070755734487</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D24" t="n">
-        <v>250.2070755734487</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E24" t="n">
-        <v>250.2070755734487</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
@@ -6069,19 +6071,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>91.88297124942892</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L24" t="n">
-        <v>389.6147262310921</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>789.0328628353551</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112288</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286846</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P24" t="n">
         <v>1513.730526286846</v>
@@ -6090,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1585.900968969949</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894784</v>
+        <v>1585.900968969949</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577356</v>
+        <v>1350.748860738206</v>
       </c>
       <c r="W24" t="n">
-        <v>455.571351529534</v>
+        <v>1096.511504010005</v>
       </c>
       <c r="X24" t="n">
-        <v>418.4224125935167</v>
+        <v>888.6600038044717</v>
       </c>
       <c r="Y24" t="n">
-        <v>418.4224125935167</v>
+        <v>680.8997050395178</v>
       </c>
     </row>
     <row r="25">
@@ -6169,19 +6171,19 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R25" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S25" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W25" t="n">
         <v>32.45932575975219</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>779.1076971866441</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="C26" t="n">
-        <v>779.1076971866441</v>
+        <v>1031.259851427965</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1076971866441</v>
+        <v>672.994152821215</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1076971866441</v>
+        <v>672.994152821215</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1076971866441</v>
+        <v>672.994152821215</v>
       </c>
       <c r="G26" t="n">
-        <v>369.2677254726013</v>
+        <v>263.1541811071722</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975219</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V26" t="n">
-        <v>779.1076971866441</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W26" t="n">
-        <v>779.1076971866441</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X26" t="n">
-        <v>779.1076971866441</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y26" t="n">
-        <v>779.1076971866441</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.6440106800819</v>
+        <v>930.4409838715765</v>
       </c>
       <c r="C27" t="n">
-        <v>111.7947023326189</v>
+        <v>755.9879545904495</v>
       </c>
       <c r="D27" t="n">
-        <v>111.7947023326189</v>
+        <v>607.0535449291982</v>
       </c>
       <c r="E27" t="n">
-        <v>111.7947023326189</v>
+        <v>447.8160899237427</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7947023326189</v>
+        <v>301.2815319506277</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>162.8691587097979</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>52.57560071726121</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6306,49 +6308,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321101</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093103</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>958.7085033988383</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W27" t="n">
-        <v>704.4711466706367</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="X27" t="n">
-        <v>496.6196464651039</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="Y27" t="n">
-        <v>288.85934770015</v>
+        <v>1098.656320891645</v>
       </c>
     </row>
     <row r="28">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>883.597792653374</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="C29" t="n">
-        <v>514.6352757129623</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="D29" t="n">
-        <v>514.6352757129623</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="E29" t="n">
-        <v>128.8470231147181</v>
+        <v>850.5781953252435</v>
       </c>
       <c r="F29" t="n">
-        <v>128.8470231147181</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G29" t="n">
-        <v>128.8470231147181</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>128.8470231147181</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
@@ -6470,7 +6472,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6479,7 +6481,7 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
         <v>1622.96628798761</v>
@@ -6500,13 +6502,13 @@
         <v>1622.96628798761</v>
       </c>
       <c r="W29" t="n">
-        <v>1270.197632717496</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X29" t="n">
-        <v>1270.197632717496</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y29" t="n">
-        <v>1270.197632717496</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>709.8087082577356</v>
+        <v>556.6069769075577</v>
       </c>
       <c r="C30" t="n">
-        <v>709.8087082577356</v>
+        <v>382.1539476264307</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>233.2195379651795</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>233.2195379651795</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>233.2195379651795</v>
       </c>
       <c r="G30" t="n">
         <v>222.0882603251556</v>
@@ -6540,52 +6542,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313473</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894784</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577356</v>
+        <v>1186.91117086136</v>
       </c>
       <c r="W30" t="n">
-        <v>709.8087082577356</v>
+        <v>932.6738141331587</v>
       </c>
       <c r="X30" t="n">
-        <v>709.8087082577356</v>
+        <v>724.8223139276258</v>
       </c>
       <c r="Y30" t="n">
-        <v>709.8087082577356</v>
+        <v>724.8223139276258</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>342.9433419838693</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
         <v>32.45932575975219</v>
@@ -6640,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>67.46279708410611</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>67.46279708410611</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="C32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1076971866441</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2677254726013</v>
+        <v>275.4578905921359</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>275.4578905921359</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.4593257597523</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6728,22 +6730,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1164.895949784888</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1164.895949784888</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="Y32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061788</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>729.53797497707</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="C33" t="n">
-        <v>555.084945695943</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="D33" t="n">
-        <v>406.1505360346918</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9130810292363</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="F33" t="n">
-        <v>100.3785230561212</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975219</v>
@@ -6777,25 +6779,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278475</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321105</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.96628798761</v>
@@ -6804,25 +6806,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.665718993835</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1340.665718993835</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V33" t="n">
-        <v>1105.513610762092</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W33" t="n">
-        <v>1105.513610762092</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X33" t="n">
-        <v>1105.513610762092</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y33" t="n">
-        <v>897.7533119971381</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>1402.17370884408</v>
       </c>
       <c r="C34" t="n">
         <v>1294.179012144412</v>
@@ -6889,19 +6891,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>1402.17370884408</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>591.0778725088204</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="C35" t="n">
-        <v>222.1153555684087</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>545.323866537332</v>
       </c>
       <c r="H35" t="n">
         <v>222.1153555684087</v>
@@ -6938,7 +6940,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528327</v>
@@ -6950,37 +6952,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1441.124433456878</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1218.380513837646</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U35" t="n">
-        <v>964.5436307699003</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V35" t="n">
-        <v>964.5436307699003</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="W35" t="n">
-        <v>964.5436307699003</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="X35" t="n">
-        <v>591.0778725088204</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="Y35" t="n">
-        <v>591.0778725088204</v>
+        <v>955.1638382513748</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>121.357112658316</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C36" t="n">
-        <v>121.357112658316</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D36" t="n">
-        <v>121.357112658316</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E36" t="n">
-        <v>121.357112658316</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F36" t="n">
         <v>32.45932575975219</v>
@@ -7017,49 +7019,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L36" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313476</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051269</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1026.358376588747</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V36" t="n">
-        <v>791.2062683570043</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W36" t="n">
-        <v>536.9689116288027</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X36" t="n">
-        <v>329.1174114232699</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="Y36" t="n">
-        <v>121.357112658316</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.96628798761</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F37" t="n">
-        <v>1476.076340489699</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
-        <v>1306.655462159184</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1622.96628798761</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C38" t="n">
-        <v>1354.551979593545</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D38" t="n">
-        <v>1354.551979593545</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E38" t="n">
-        <v>968.7637269953007</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7181,7 +7183,7 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7208,16 +7210,16 @@
         <v>1622.96628798761</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.96628798761</v>
+        <v>1558.673042980801</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.96628798761</v>
+        <v>1205.904387710687</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.96628798761</v>
+        <v>832.4386294496068</v>
       </c>
       <c r="Y38" t="n">
-        <v>1622.96628798761</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D39" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
         <v>32.45932575975219</v>
@@ -7251,22 +7253,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278475</v>
       </c>
       <c r="M39" t="n">
-        <v>898.2686245361181</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813052</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.96628798761</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.96628798761</v>
@@ -7275,28 +7277,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894786</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577358</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W39" t="n">
-        <v>455.5713515295342</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X39" t="n">
-        <v>366.1498100463347</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y39" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J40" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029502</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029502</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029502</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T40" t="n">
-        <v>132.1392625228378</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U40" t="n">
-        <v>132.1392625228378</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V40" t="n">
-        <v>132.1392625228378</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7411,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
         <v>247.358046901132</v>
@@ -7427,7 +7429,7 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.96628798761</v>
@@ -7442,16 +7444,16 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919864</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V41" t="n">
-        <v>1038.066517576293</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W41" t="n">
-        <v>685.2978623061788</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X41" t="n">
-        <v>311.8321040450989</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y41" t="n">
         <v>32.45932575975219</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>965.4031851870466</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>389.6147262310922</v>
+        <v>505.9483651585072</v>
       </c>
       <c r="M42" t="n">
-        <v>789.0328628353552</v>
+        <v>905.3665017627702</v>
       </c>
       <c r="N42" t="n">
-        <v>1190.717019112289</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O42" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051269</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570043</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288027</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X42" t="n">
-        <v>414.6726538058331</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.9123550408792</v>
+        <v>965.4031851870466</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="C43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="D43" t="n">
-        <v>139.6199360758256</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="E43" t="n">
-        <v>139.6199360758256</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F43" t="n">
-        <v>139.6199360758256</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>139.6199360758256</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975219</v>
@@ -7594,25 +7596,25 @@
         <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.6199360758256</v>
+        <v>361.2466016029502</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2627134053898</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="C44" t="n">
-        <v>921.2627134053898</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="D44" t="n">
-        <v>921.2627134053898</v>
+        <v>819.6420592638569</v>
       </c>
       <c r="E44" t="n">
-        <v>852.139269187838</v>
+        <v>819.6420592638569</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>819.6420592638569</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>409.8020875498141</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>72.99368783696497</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521499</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7673,25 +7675,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U44" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V44" t="n">
-        <v>1311.402045381202</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.402045381202</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.402045381202</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2627134053898</v>
+        <v>1177.907757870607</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>247.0979507863467</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>72.64492150521968</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7728,13 +7730,13 @@
         <v>61.20822116384406</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384406</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455073</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609044</v>
@@ -7755,22 +7757,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.665718993835</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.568727888341</v>
+        <v>877.3109432995702</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.568727888341</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>415.3132878064147</v>
       </c>
     </row>
     <row r="46">
@@ -7789,13 +7791,13 @@
         <v>132.1392625228378</v>
       </c>
       <c r="E46" t="n">
-        <v>132.1392625228378</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1392625228378</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>132.1392625228378</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479952</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>332.402083771922</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>429.4962025068242</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349567</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452005</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304798</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>104.7567089243586</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>117.9172225363091</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831321</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>362.338157267515</v>
+        <v>74.46639351210624</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>74.46639351210624</v>
+        <v>103.5056817990681</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>296.512727107936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243586</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>74.46639351210658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M39" t="n">
-        <v>429.4962025068241</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>455.0874215304797</v>
@@ -10917,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831318</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>99.7381345027554</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>224.2923308271897</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742655</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>73.77211287831318</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026371</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>362.3381572675149</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23267,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
-        <v>208.2618008140656</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>66.52963679486066</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.7653978813091</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>153.6996353979298</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.4100076662641</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>87.96385844296282</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.107959118565</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>149.9097029605422</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23735,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>140.0114066867783</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1.134473744809043</v>
@@ -23747,10 +23749,10 @@
         <v>8.971932133631526</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>161.2541325917408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>84.69968995873758</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>104.3443644685906</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23911,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23941,13 +23943,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>187.6214750622408</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967576</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>31.45777414507131</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>126.9150022124807</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>2.814869727006567</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>116.8429368463964</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>106.4702204209992</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24184,7 +24186,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.9172304492661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>250.5640488380476</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>322.7356317985839</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>162.1993129780777</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>168.9955356568204</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>130.7556245257471</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>25.05329603616934</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>105.0524089217748</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>272.5958484176317</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>163.9476837243274</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>58.62691059920411</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>2.679936868777418</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>92.33564912915369</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>104.344364468591</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>126.0082846447978</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6064425243204</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141475</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24889,13 +24891,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>217.4842067127176</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24923,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>1.134473744809043</v>
@@ -24932,7 +24934,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>92.8717365316607</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24968,16 +24970,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>18.32535983941438</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>69.78824418501611</v>
+        <v>129.6030249771192</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25044,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>60.33207136595664</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,10 +25131,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9428526967575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>13.4638898564865</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>128.4251641949201</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>57.06040336380572</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25281,10 +25283,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>130.8980553215738</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5255324891708</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>99.54272646088361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>264.1019459133942</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>84.69968995873762</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>117.24565913511</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25569,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434427</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>187.8398609411362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25682,7 +25684,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>109.6588881535604</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.6588881535603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>24.01433129688883</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>84.69968995873757</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029467</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>53.78821379088249</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25834,7 +25836,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25868,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>313.4981602968854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>8.971932133631526</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>147.6304510541293</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25922,7 +25924,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>107.6613257766259</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,19 +25997,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>31.59930865325612</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>47.75082525111438</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>61.19408060834039</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>516978.7280411114</v>
+        <v>516978.7280411115</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>516978.7280411114</v>
+        <v>516978.7280411116</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>516978.7280411113</v>
+        <v>516978.7280411112</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>516978.7280411115</v>
+        <v>516978.7280411113</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>516978.7280411111</v>
+        <v>516978.7280411114</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>516978.7280411115</v>
+        <v>516978.7280411113</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>516978.7280411112</v>
+        <v>516978.7280411113</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>516978.7280411113</v>
+        <v>516978.7280411115</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516978.7280411115</v>
+        <v>516978.7280411116</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26316,22 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="F2" t="n">
         <v>256354.6764775277</v>
-      </c>
-      <c r="F2" t="n">
-        <v>256354.6764775276</v>
       </c>
       <c r="G2" t="n">
         <v>256354.6764775277</v>
       </c>
       <c r="H2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775275</v>
       </c>
       <c r="I2" t="n">
         <v>256354.6764775277</v>
@@ -26338,10 +26340,10 @@
         <v>256354.6764775276</v>
       </c>
       <c r="K2" t="n">
-        <v>256354.6764775278</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="L2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="M2" t="n">
         <v>256354.6764775276</v>
@@ -26350,10 +26352,10 @@
         <v>256354.6764775277</v>
       </c>
       <c r="O2" t="n">
+        <v>256354.6764775278</v>
+      </c>
+      <c r="P2" t="n">
         <v>256354.6764775277</v>
-      </c>
-      <c r="P2" t="n">
-        <v>256354.6764775276</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,19 +26438,19 @@
         <v>25938.22349556464</v>
       </c>
       <c r="I4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="J4" t="n">
         <v>25938.22349556464</v>
       </c>
       <c r="K4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
       <c r="L4" t="n">
         <v>25938.22349556464</v>
       </c>
       <c r="M4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="N4" t="n">
         <v>25938.22349556464</v>
@@ -26457,7 +26459,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="P4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26481,10 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375758</v>
@@ -26494,13 +26496,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375758</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375758</v>
@@ -26522,7 +26524,7 @@
         <v>59346.56577618188</v>
       </c>
       <c r="C6" t="n">
-        <v>140115.9973077294</v>
+        <v>140115.9973077296</v>
       </c>
       <c r="D6" t="n">
         <v>140115.9973077296</v>
@@ -26534,31 +26536,31 @@
         <v>202552.1000682054</v>
       </c>
       <c r="G6" t="n">
-        <v>202552.1000682054</v>
+        <v>202552.1000682055</v>
       </c>
       <c r="H6" t="n">
-        <v>202552.1000682055</v>
+        <v>202552.1000682053</v>
       </c>
       <c r="I6" t="n">
         <v>202552.1000682056</v>
       </c>
       <c r="J6" t="n">
-        <v>139492.1574690991</v>
+        <v>139492.1574690992</v>
       </c>
       <c r="K6" t="n">
-        <v>202552.1000682056</v>
+        <v>202552.1000682054</v>
       </c>
       <c r="L6" t="n">
-        <v>202552.1000682054</v>
+        <v>202552.1000682055</v>
       </c>
       <c r="M6" t="n">
         <v>161501.4022057575</v>
       </c>
       <c r="N6" t="n">
-        <v>202552.1000682054</v>
+        <v>202552.1000682055</v>
       </c>
       <c r="O6" t="n">
-        <v>202552.1000682055</v>
+        <v>202552.1000682056</v>
       </c>
       <c r="P6" t="n">
         <v>202552.1000682054</v>
@@ -26747,10 +26749,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
         <v>146.5718044195371</v>
@@ -26796,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969024</v>
@@ -26814,13 +26816,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969024</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>189.8484676766033</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>173.5600137802537</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.0684505761374</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>373.0723303772617</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>119.0565461308988</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27698,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>136.8782140978121</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>141.0382880850187</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,13 +27937,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>153.3128647087786</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.65374606537378</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
@@ -32011,16 +32013,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
@@ -32029,7 +32031,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32071,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,40 +32150,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011537</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046567</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I20" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629222</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645908</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044664</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,25 +32487,25 @@
         <v>105.1383858978455</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971771</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737673</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134788</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T20" t="n">
         <v>2.579369141091552</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809229</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.315267654789193</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H21" t="n">
         <v>3.044821823885102</v>
@@ -32549,37 +32551,37 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409526</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253949</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864772</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975596</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100593</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601705</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q21" t="n">
         <v>40.24363958326612</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422068</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U21" t="n">
         <v>0.02074129307823639</v>
@@ -32622,10 +32624,10 @@
         <v>0.2643098112483456</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177522</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525803</v>
@@ -32634,28 +32636,28 @@
         <v>30.70799443412596</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323131</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039458</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172071</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118893</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970204</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I38" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629223</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971774</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S38" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885102</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409527</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L39" t="n">
-        <v>68.4531809225395</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864773</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975597</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100594</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601706</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326612</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
         <v>0.02074129307823639</v>
@@ -34041,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177523</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J40" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323132</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141112</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735011</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144178</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>264.8160343684834</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>367.2438019934536</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>331.4139538013793</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
@@ -35817,10 +35819,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35899,10 +35901,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P17" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318299</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969024</v>
@@ -35978,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>30.9845960460454</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.0611576216797</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M20" t="n">
         <v>322.6315268094072</v>
@@ -36133,13 +36135,13 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P20" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680308</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243109</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M22" t="n">
-        <v>81.0156412832517</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O22" t="n">
         <v>61.94411832576039</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>30.98459604604533</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36452,7 +36454,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36674,13 +36676,13 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>300.0857567541444</v>
+        <v>12.21399299873562</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36692,7 +36694,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
@@ -36917,10 +36919,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>12.21399299873562</v>
+        <v>41.25328128569749</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>226.4115282506013</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37163,10 +37165,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.690655761624</v>
+        <v>30.9845960460454</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>12.21399299873596</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908059</v>
       </c>
       <c r="P36" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696148</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461245</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M39" t="n">
-        <v>367.2438019934536</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969024</v>
@@ -37637,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680288</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696148</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>154.191131969855</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969024</v>
+        <v>398.5719990406882</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.0611576216796</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38032,7 +38034,7 @@
         <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635895</v>
       </c>
       <c r="Q44" t="n">
         <v>53.63987744680309</v>
@@ -38096,16 +38098,16 @@
         <v>29.03928828696148</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461245</v>
       </c>
       <c r="M45" t="n">
-        <v>300.0857567541444</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969024</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
